--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.0521286475999797</v>
+        <v>0.05950533333333333</v>
       </c>
       <c r="H2">
-        <v>0.0521286475999797</v>
+        <v>0.178516</v>
       </c>
       <c r="I2">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="J2">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>4.61049483473058</v>
+        <v>5.887857793861333</v>
       </c>
       <c r="R2">
-        <v>4.61049483473058</v>
+        <v>52.990720144752</v>
       </c>
       <c r="S2">
-        <v>0.003514830978396781</v>
+        <v>0.003783838787244528</v>
       </c>
       <c r="T2">
-        <v>0.003514830978396781</v>
+        <v>0.003783838787244528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.0521286475999797</v>
+        <v>0.05950533333333333</v>
       </c>
       <c r="H3">
-        <v>0.0521286475999797</v>
+        <v>0.178516</v>
       </c>
       <c r="I3">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="J3">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>8.488496764955961</v>
+        <v>9.699740388756888</v>
       </c>
       <c r="R3">
-        <v>8.488496764955961</v>
+        <v>87.297663498812</v>
       </c>
       <c r="S3">
-        <v>0.006471242775230558</v>
+        <v>0.006233549653228092</v>
       </c>
       <c r="T3">
-        <v>0.006471242775230558</v>
+        <v>0.006233549653228093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.0521286475999797</v>
+        <v>0.05950533333333333</v>
       </c>
       <c r="H4">
-        <v>0.0521286475999797</v>
+        <v>0.178516</v>
       </c>
       <c r="I4">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="J4">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>3.222620962972806</v>
+        <v>3.891417125902223</v>
       </c>
       <c r="R4">
-        <v>3.222620962972806</v>
+        <v>35.02275413312001</v>
       </c>
       <c r="S4">
-        <v>0.002456779239174571</v>
+        <v>0.002500823826568668</v>
       </c>
       <c r="T4">
-        <v>0.002456779239174571</v>
+        <v>0.002500823826568668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.0521286475999797</v>
+        <v>0.05950533333333333</v>
       </c>
       <c r="H5">
-        <v>0.0521286475999797</v>
+        <v>0.178516</v>
       </c>
       <c r="I5">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="J5">
-        <v>0.01801882358763018</v>
+        <v>0.01803537323915772</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>7.31414505678208</v>
+        <v>8.585000856582223</v>
       </c>
       <c r="R5">
-        <v>7.31414505678208</v>
+        <v>77.26500770924001</v>
       </c>
       <c r="S5">
-        <v>0.005575970594828269</v>
+        <v>0.005517160972116433</v>
       </c>
       <c r="T5">
-        <v>0.005575970594828269</v>
+        <v>0.005517160972116433</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.84088195025979</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H6">
-        <v>2.84088195025979</v>
+        <v>0.182541</v>
       </c>
       <c r="I6">
-        <v>0.9819811764123698</v>
+        <v>0.01844201677412159</v>
       </c>
       <c r="J6">
-        <v>0.9819811764123698</v>
+        <v>0.01844201677412159</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>251.2605287261893</v>
+        <v>6.020611315228001</v>
       </c>
       <c r="R6">
-        <v>251.2605287261893</v>
+        <v>54.185501837052</v>
       </c>
       <c r="S6">
-        <v>0.191549567166313</v>
+        <v>0.00386915299503912</v>
       </c>
       <c r="T6">
-        <v>0.191549567166313</v>
+        <v>0.00386915299503912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.84088195025979</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H7">
-        <v>2.84088195025979</v>
+        <v>0.182541</v>
       </c>
       <c r="I7">
-        <v>0.9819811764123698</v>
+        <v>0.01844201677412159</v>
       </c>
       <c r="J7">
-        <v>0.9819811764123698</v>
+        <v>0.01844201677412159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>462.6020116511022</v>
+        <v>9.918440421609668</v>
       </c>
       <c r="R7">
-        <v>462.6020116511022</v>
+        <v>89.26596379448701</v>
       </c>
       <c r="S7">
-        <v>0.3526666745121683</v>
+        <v>0.006374097488459909</v>
       </c>
       <c r="T7">
-        <v>0.3526666745121683</v>
+        <v>0.006374097488459911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.84088195025979</v>
+        <v>0.06084700000000001</v>
       </c>
       <c r="H8">
-        <v>2.84088195025979</v>
+        <v>0.182541</v>
       </c>
       <c r="I8">
-        <v>0.9819811764123698</v>
+        <v>0.01844201677412159</v>
       </c>
       <c r="J8">
-        <v>0.9819811764123698</v>
+        <v>0.01844201677412159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>175.6248463703062</v>
+        <v>3.979156902346668</v>
       </c>
       <c r="R8">
-        <v>175.6248463703062</v>
+        <v>35.81241212112</v>
       </c>
       <c r="S8">
-        <v>0.1338883726641459</v>
+        <v>0.002557209897856053</v>
       </c>
       <c r="T8">
-        <v>0.1338883726641459</v>
+        <v>0.002557209897856054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.06084700000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.182541</v>
+      </c>
+      <c r="I9">
+        <v>0.01844201677412159</v>
+      </c>
+      <c r="J9">
+        <v>0.01844201677412159</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>8.778566858776667</v>
+      </c>
+      <c r="R9">
+        <v>79.00710172899001</v>
+      </c>
+      <c r="S9">
+        <v>0.005641556392766508</v>
+      </c>
+      <c r="T9">
+        <v>0.005641556392766508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.179015666666666</v>
+      </c>
+      <c r="H10">
+        <v>9.537046999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="J10">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>314.5531857613427</v>
+      </c>
+      <c r="R10">
+        <v>2830.978671852084</v>
+      </c>
+      <c r="S10">
+        <v>0.2021479775167159</v>
+      </c>
+      <c r="T10">
+        <v>0.202147977516716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.84088195025979</v>
-      </c>
-      <c r="H9">
-        <v>2.84088195025979</v>
-      </c>
-      <c r="I9">
-        <v>0.9819811764123698</v>
-      </c>
-      <c r="J9">
-        <v>0.9819811764123698</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q9">
-        <v>398.6027574097697</v>
-      </c>
-      <c r="R9">
-        <v>398.6027574097697</v>
-      </c>
-      <c r="S9">
-        <v>0.3038765620697427</v>
-      </c>
-      <c r="T9">
-        <v>0.3038765620697427</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.179015666666666</v>
+      </c>
+      <c r="H11">
+        <v>9.537046999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="J11">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>518.1993769486921</v>
+      </c>
+      <c r="R11">
+        <v>4663.794392538229</v>
+      </c>
+      <c r="S11">
+        <v>0.333021443566235</v>
+      </c>
+      <c r="T11">
+        <v>0.3330214435662351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.179015666666666</v>
+      </c>
+      <c r="H12">
+        <v>9.537046999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="J12">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>207.8952476323378</v>
+      </c>
+      <c r="R12">
+        <v>1871.05722869104</v>
+      </c>
+      <c r="S12">
+        <v>0.1336041272082347</v>
+      </c>
+      <c r="T12">
+        <v>0.1336041272082348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.179015666666666</v>
+      </c>
+      <c r="H13">
+        <v>9.537046999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="J13">
+        <v>0.9635226099867207</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>458.6454808771477</v>
+      </c>
+      <c r="R13">
+        <v>4127.80932789433</v>
+      </c>
+      <c r="S13">
+        <v>0.2947490616955349</v>
+      </c>
+      <c r="T13">
+        <v>0.2947490616955349</v>
       </c>
     </row>
   </sheetData>
